--- a/Assignments/Adv/Advertisement_REST_call_details_v3.xlsx
+++ b/Assignments/Adv/Advertisement_REST_call_details_v3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulkarni_an\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MainRepo\freshersbatch-jul17\Assignments\Adv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19980" windowHeight="8070"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15120" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,6 +414,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -449,6 +466,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -625,437 +659,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:L24"/>
+  <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+    <row r="1" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+    <row r="3" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="7" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>5</v>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="3:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C9" s="3">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="3:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
+    </row>
+    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="3:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="3:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="C12" s="3">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="3">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="3">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="3">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="3">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="I15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="3">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C18" s="3">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>17</v>
+      <c r="I17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C19" s="3">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
+    </row>
+    <row r="19" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="3:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="C20" s="3">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="3">
-        <v>15</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="3">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="3:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="C23" s="3">
-        <v>17</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="6">
-        <v>18</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="7" t="s">
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="7" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Assignments/Adv/Advertisement_REST_call_details_v3.xlsx
+++ b/Assignments/Adv/Advertisement_REST_call_details_v3.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assignments/Adv/Advertisement_REST_call_details_v3.xlsx
+++ b/Assignments/Adv/Advertisement_REST_call_details_v3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MainRepo\freshersbatch-jul17\Assignments\Adv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Xoriant\Training\MainRepo\freshersbatch-jul17\Assignments\Adv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -205,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +222,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
@@ -269,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -293,6 +300,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +720,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -732,7 +742,7 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -752,7 +762,7 @@
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -790,7 +800,7 @@
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -856,7 +866,7 @@
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -944,7 +954,7 @@
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -964,7 +974,7 @@
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1050,7 +1060,7 @@
       <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -1070,7 +1080,7 @@
       <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -1087,7 +1097,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assignments/Adv/Advertisement_REST_call_details_v3.xlsx
+++ b/Assignments/Adv/Advertisement_REST_call_details_v3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Xoriant\Training\MainRepo\freshersbatch-jul17\Assignments\Adv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MainRepo\freshersbatch-jul17\Assignments\Adv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -222,15 +222,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
@@ -287,9 +287,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -300,6 +297,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B2:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -742,7 +742,7 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -762,13 +762,13 @@
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -780,7 +780,7 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -800,7 +800,7 @@
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -824,7 +824,7 @@
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -846,7 +846,7 @@
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -866,7 +866,7 @@
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -888,7 +888,7 @@
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -910,7 +910,7 @@
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -932,7 +932,7 @@
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -954,7 +954,7 @@
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -974,7 +974,7 @@
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -996,7 +996,7 @@
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1016,7 +1016,7 @@
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1038,7 +1038,7 @@
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1057,41 +1057,41 @@
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>18</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="7" t="s">
+      <c r="F20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6" t="s">
         <v>52</v>
       </c>
     </row>
